--- a/Banco Central/7/1/1/1/Series originales 1996 a 2021 - Trimestral.xlsx
+++ b/Banco Central/7/1/1/1/Series originales 1996 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Serie</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -704,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3974,6 +3977,38 @@
         <v>112.3</v>
       </c>
     </row>
+    <row r="103" spans="1:10">
+      <c r="A103" t="s">
+        <v>111</v>
+      </c>
+      <c r="B103">
+        <v>114.4</v>
+      </c>
+      <c r="C103">
+        <v>101.4</v>
+      </c>
+      <c r="D103">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="E103">
+        <v>106.8</v>
+      </c>
+      <c r="F103">
+        <v>100.2</v>
+      </c>
+      <c r="G103">
+        <v>130.7</v>
+      </c>
+      <c r="H103">
+        <v>119.8</v>
+      </c>
+      <c r="I103">
+        <v>113.6</v>
+      </c>
+      <c r="J103">
+        <v>116.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
